--- a/modelagem/Resultados_2018 1ª abordagem/2. Fevereiro/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/2. Fevereiro/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,887 +436,720 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Modelo Individual Treino</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ativos</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.1419427617672459</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6524622346184979</v>
-      </c>
       <c r="C2" t="n">
-        <v>0.7268325592491457</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7344584327242576</v>
+        <v>0.09599630153972326</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0.2048083931003256</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>B3SA3</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3.573171709687085</v>
-      </c>
       <c r="C3" t="n">
-        <v>1.804052489492372</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.117173688128395</v>
+        <v>0.1618568742877282</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0.2883308952301582</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1.870023658558362</v>
-      </c>
       <c r="C4" t="n">
-        <v>1.583687015786809</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.320137066874953</v>
+        <v>0.1780327656586447</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0.2243259526768105</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>BBDC3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1.059213048827359</v>
-      </c>
       <c r="C5" t="n">
-        <v>1.301293040990669</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.582772491940518</v>
+        <v>0.1984000888791599</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0.1879510504029522</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>BBDC4</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2.59891600039238</v>
-      </c>
       <c r="C6" t="n">
-        <v>2.406789924093867</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.383468193597424</v>
+        <v>0.172238707796923</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0.16199046110162</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>BEEF3</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.102506055899901</v>
-      </c>
       <c r="C7" t="n">
-        <v>1.429195043087106</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.458179697250732</v>
+        <v>0.1155918234152912</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0.05382389186070458</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>BRAP4</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.4910135116121442</v>
-      </c>
       <c r="C8" t="n">
-        <v>0.3529352565019325</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6513624098625586</v>
+        <v>0.03192869001161901</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0.2468992999432295</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.9781674618249955</v>
-      </c>
       <c r="C9" t="n">
-        <v>1.894618309267586</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8450473440186341</v>
+        <v>0.09856454685822821</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0.1278300197977891</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.5221056857556168</v>
-      </c>
       <c r="C10" t="n">
-        <v>0.4137560871789617</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7393470133657667</v>
+        <v>0.1606142339790169</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0.1669342387515015</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>CCRO3</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>6.53791775609282</v>
-      </c>
       <c r="C11" t="n">
-        <v>7.377050378977119</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.50225888580754</v>
+        <v>0.1506007378073091</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>0.2266828586969669</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1.819289656351408</v>
-      </c>
       <c r="C12" t="n">
-        <v>1.749908479429357</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.593704447802486</v>
+        <v>0.04967481413820765</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0.1970410825795586</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>CMIG4</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2.133887814419895</v>
-      </c>
       <c r="C13" t="n">
-        <v>0.9246906582048782</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8851088847521439</v>
+        <v>0.1274666201670561</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>0.2592136411437456</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.7367032546903484</v>
-      </c>
       <c r="C14" t="n">
-        <v>1.156307883730825</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.871731055010181</v>
+        <v>0.2206188334835879</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0.166509483670296</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>CPLE6</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1.407343832744632</v>
-      </c>
       <c r="C15" t="n">
-        <v>1.171736513942515</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.092589299095408</v>
+        <v>0.1066143339859435</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>0.1695913377939266</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>CSAN3</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2.611546248254277</v>
-      </c>
       <c r="C16" t="n">
-        <v>1.277145533764788</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.702380232927385</v>
+        <v>0.0293348083172996</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>0.2634793747224723</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1.144703820584029</v>
-      </c>
       <c r="C17" t="n">
-        <v>0.8273296088989742</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.175502529427241</v>
+        <v>0.1274938942677544</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>0.1704522493615885</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>CYRE3</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2.678721280014191</v>
-      </c>
       <c r="C18" t="n">
-        <v>2.823606990621763</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.464481673201391</v>
+        <v>0.1055889194855183</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>0.3161459513656608</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.9638821565107942</v>
-      </c>
       <c r="C19" t="n">
-        <v>0.9813416310499843</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9358102731141125</v>
+        <v>0.08931832359546395</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>0.2483248126345014</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>ELET3</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.5580191853201848</v>
-      </c>
       <c r="C20" t="n">
-        <v>0.6452743016705554</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5947748798961374</v>
+        <v>0.213736123458626</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>0.234030514687753</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>ELET6</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1.551244152707057</v>
-      </c>
       <c r="C21" t="n">
-        <v>2.03646012543095</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.630552212103213</v>
+        <v>0.149669664786581</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>0.03073567086945529</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>EMBR3</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>6.345429922403805</v>
-      </c>
       <c r="C22" t="n">
-        <v>100.9796014515221</v>
-      </c>
-      <c r="D22" t="n">
-        <v>73.87074797231283</v>
+        <v>0.1022772189915041</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>0.2750460185572445</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>ENBR3</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.5711842459258516</v>
-      </c>
       <c r="C23" t="n">
-        <v>0.4204729517962773</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5619117215784615</v>
+        <v>0.1675865247817079</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>0.1992394641760818</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>ENEV3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.7262674700440972</v>
-      </c>
       <c r="C24" t="n">
-        <v>1.073921918578767</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.118958363416553</v>
+        <v>0.1331166754286224</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>0.33359316819331</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>ENGI11</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2.243288235096023</v>
-      </c>
       <c r="C25" t="n">
-        <v>2.257816963442686</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2.299001153238705</v>
+        <v>0.127073888068882</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>0.16629235796405</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>EQTL3</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>17.87177385682293</v>
-      </c>
       <c r="C26" t="n">
-        <v>5.196083927262077</v>
-      </c>
-      <c r="D26" t="n">
-        <v>6.464920774200403</v>
+        <v>0.1265328427136684</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>0.2517119712788431</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>EZTC3</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1.833790639532947</v>
-      </c>
       <c r="C27" t="n">
-        <v>1.582565109466471</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.110276550196175</v>
+        <v>0.09343076485704646</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>0.06424045817575294</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>FLRY3</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>7.120341458418406</v>
-      </c>
       <c r="C28" t="n">
-        <v>6.609246859563764</v>
-      </c>
-      <c r="D28" t="n">
-        <v>8.386843416225485</v>
+        <v>0.04948216453566421</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>0.1182905553009316</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>1.961262344381146</v>
-      </c>
       <c r="C29" t="n">
-        <v>3.560428699986083</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.201829731826525</v>
+        <v>0.03992951562190962</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>0.0557604230730491</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>GOAU4</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>4.524457555530612</v>
-      </c>
       <c r="C30" t="n">
-        <v>3.993947041592838</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.067606855187158</v>
+        <v>0.02497732789905955</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>0.2268201588431907</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>GOLL4</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0.7110105640919377</v>
-      </c>
       <c r="C31" t="n">
-        <v>0.4599885019931292</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.4102862404606434</v>
+        <v>0.1974715344720724</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>0.1409932609689554</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>HYPE3</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>1.580933464878048</v>
-      </c>
       <c r="C32" t="n">
-        <v>2.418762916556394</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2.566266319819769</v>
+        <v>0.1190996858681149</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>0.1532241998651414</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>1.189289506134904</v>
-      </c>
       <c r="C33" t="n">
-        <v>1.381864914018722</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.11001083438881</v>
+        <v>0.1545544100023138</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>0.1583553968000731</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>ITUB4</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1.147799704399145</v>
-      </c>
       <c r="C34" t="n">
-        <v>1.583559186123036</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2.332231532581956</v>
+        <v>0.1898699921990826</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>0.3284322796962125</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>JBSS3</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>4.22010102218787</v>
-      </c>
       <c r="C35" t="n">
-        <v>1.938711060653809</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.832632076459952</v>
+        <v>0.1486293281143616</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>0.1889063236527561</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>JHSF3</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0.7559767545358806</v>
-      </c>
       <c r="C36" t="n">
-        <v>1.55479990206155</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.461810348309404</v>
+        <v>0.09129804319739235</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>0.2928339491397336</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>LREN3</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2.388823625665804</v>
-      </c>
       <c r="C37" t="n">
-        <v>2.329064844071879</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.645270783598099</v>
+        <v>0.1286841459886943</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>0.1129178336393936</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>MRFG3</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>2.939874249457551</v>
-      </c>
       <c r="C38" t="n">
-        <v>2.407709974956793</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.39706209721514</v>
+        <v>0.03288903039329497</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>0.1660288171071225</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>MRVE3</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>2.335763715876471</v>
-      </c>
       <c r="C39" t="n">
-        <v>1.798989469280592</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.637345320030568</v>
+        <v>0.1128499242317416</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>0.2546320603781249</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>MULT3</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2.417124499467093</v>
-      </c>
       <c r="C40" t="n">
-        <v>2.895159902977595</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.447877239674444</v>
+        <v>0.1645175035257518</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>0.1217986146529139</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>PETR3</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>2.273899701325649</v>
-      </c>
       <c r="C41" t="n">
-        <v>1.326000323975124</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.573943408160437</v>
+        <v>0.1364835709317752</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>0.2221415392067658</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>PETR4</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>1.449565032130443</v>
-      </c>
       <c r="C42" t="n">
-        <v>1.409142861641768</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.368467846801505</v>
+        <v>0.1463874289016467</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>0.1343555266733613</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>RADL3</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>1.701163751480755</v>
-      </c>
       <c r="C43" t="n">
-        <v>1.260138950979786</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.8879984426362009</v>
+        <v>0.0206160706365858</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>0.341939860973878</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>RENT3</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.9620868114295368</v>
-      </c>
       <c r="C44" t="n">
-        <v>1.198435484754613</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.071919556949281</v>
+        <v>0.1307847144699531</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>0.2146988775040732</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>SANB11</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>4.860119230650674</v>
-      </c>
       <c r="C45" t="n">
-        <v>2.924596281444843</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.963024728558531</v>
+        <v>0.1787265497113938</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>0.2106349923929024</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>SBSP3</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>10.32197669379342</v>
-      </c>
       <c r="C46" t="n">
-        <v>6.337571128369863</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4.163002693226695</v>
+        <v>0.04055389216375493</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>0.2317894499673803</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>TAEE11</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>1.404287291120073</v>
-      </c>
       <c r="C47" t="n">
-        <v>1.858078556040314</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.143871916056677</v>
+        <v>0.1983523138666355</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>0.03648730104118125</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>TIMS3</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>1.70978915258193</v>
-      </c>
       <c r="C48" t="n">
-        <v>1.261549906073765</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.82236465565833</v>
+        <v>0.06201314193643861</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>0.2064098923260201</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>TOTS3</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>2.989755552536116</v>
-      </c>
       <c r="C49" t="n">
-        <v>1.612827325489973</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.811840645469111</v>
+        <v>0.1444714563236978</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>0.1596361879340043</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>UGPA3</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>2.824592493664655</v>
-      </c>
       <c r="C50" t="n">
-        <v>5.602342767133466</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3.377264381013245</v>
+        <v>0.04761834401474798</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>0.08630460683045266</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>USIM5</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>0.8582257998196567</v>
-      </c>
       <c r="C51" t="n">
-        <v>1.001551259149131</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.247790756984629</v>
+        <v>0.02060011281519856</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>0.1402852986832847</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>VALE3</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0.4995076761102206</v>
-      </c>
       <c r="C52" t="n">
-        <v>0.4869958976899731</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.800199854393672</v>
+        <v>0.1348775578692143</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>0.08581088459269653</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>VIVT3</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>0.7664141309919886</v>
-      </c>
       <c r="C53" t="n">
-        <v>0.7653305978310042</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.7774848845820552</v>
+        <v>0.1508845676578566</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>0.1407003154787516</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>WEGE3</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>2.134378272189019</v>
-      </c>
       <c r="C54" t="n">
-        <v>3.386834050662113</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.871095877898934</v>
+        <v>0.06209842744153717</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>0.2336233069719443</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>YDUQ3</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>1.813228249025591</v>
-      </c>
       <c r="C55" t="n">
-        <v>1.978200083893624</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.709618573529304</v>
+        <v>0.1275871949672101</v>
       </c>
     </row>
   </sheetData>
